--- a/10x10_AFH_experiments.xlsx
+++ b/10x10_AFH_experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/royelkabetz/Git/2D_TN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB7A00C-DE97-FA42-A68E-ACC64A24391A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEA7A5C-CE33-5445-ADE5-891D49BA1C0C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15820" xr2:uid="{8342B8FB-4C6F-A44D-B968-BD1B41BE2231}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15820" xr2:uid="{8342B8FB-4C6F-A44D-B968-BD1B41BE2231}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="20">
   <si>
     <t>E gPEPS</t>
   </si>
@@ -42,22 +42,7 @@
     <t>E BP f-belief</t>
   </si>
   <si>
-    <t>J = normal(1, 0):</t>
-  </si>
-  <si>
-    <t>J = normal(1, 1):</t>
-  </si>
-  <si>
-    <t>J = normal(1, 2):</t>
-  </si>
-  <si>
-    <t>10x10 AFH open BC PEPS with maximal bond dimension D = 2 and interactions J = normal(mu, sigma)</t>
-  </si>
-  <si>
     <t>parameters:</t>
-  </si>
-  <si>
-    <t>D max = 2</t>
   </si>
   <si>
     <t>dE = 1e-8</t>
@@ -71,12 +56,48 @@
   <si>
     <t>BP epsilon = 1e-5</t>
   </si>
+  <si>
+    <t>D = 2</t>
+  </si>
+  <si>
+    <t>D = 3</t>
+  </si>
+  <si>
+    <t>J = normal(1, 0)</t>
+  </si>
+  <si>
+    <t>J = normal(1, 1)</t>
+  </si>
+  <si>
+    <t>J = normal(1, 2)</t>
+  </si>
+  <si>
+    <t>environment size</t>
+  </si>
+  <si>
+    <t>D = 4</t>
+  </si>
+  <si>
+    <t>D = 5</t>
+  </si>
+  <si>
+    <t>10x10 AFH open BC PEPS with maximal bond dimension D = 2, 3, 4, 5 and interactions J = normal(mu, sigma)</t>
+  </si>
+  <si>
+    <t>e = 0</t>
+  </si>
+  <si>
+    <t>e = 1</t>
+  </si>
+  <si>
+    <t>4x4 AFH J=normal(1, 0)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -113,8 +134,29 @@
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -127,8 +169,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -308,11 +386,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -322,35 +464,105 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -666,306 +878,1022 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936FA07D-B085-6A4D-A018-8B46C7CE1754}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:T43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="17.1640625" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="18.1640625" customWidth="1"/>
-    <col min="9" max="9" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="6.5" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" customWidth="1"/>
+    <col min="10" max="10" width="17.1640625" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" customWidth="1"/>
+    <col min="12" max="12" width="22" customWidth="1"/>
+    <col min="13" max="13" width="5" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" customWidth="1"/>
+    <col min="15" max="15" width="19" customWidth="1"/>
+    <col min="16" max="16" width="17.5" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" customWidth="1"/>
+    <col min="18" max="18" width="15.6640625" customWidth="1"/>
+    <col min="19" max="19" width="16.6640625" customWidth="1"/>
+    <col min="20" max="20" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:20" ht="21">
+      <c r="A1" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+    </row>
+    <row r="3" spans="1:20" ht="17" thickBot="1"/>
+    <row r="4" spans="1:20">
+      <c r="A4" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="16" customHeight="1">
+      <c r="A6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="I6" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="N6" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="R6" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+    </row>
+    <row r="7" spans="1:20" ht="17" customHeight="1">
+      <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-    </row>
-    <row r="3" spans="1:9" ht="17" thickBot="1"/>
-    <row r="4" spans="1:9">
-      <c r="A4" s="9" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+    </row>
+    <row r="8" spans="1:20" ht="17" customHeight="1" thickBot="1">
+      <c r="A8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="20">
+        <v>0</v>
+      </c>
+      <c r="D9" s="21">
+        <v>1</v>
+      </c>
+      <c r="E9" s="21">
+        <v>2</v>
+      </c>
+      <c r="F9" s="21">
         <v>3</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11">
-        <v>0</v>
-      </c>
-      <c r="D4" s="11">
-        <v>1</v>
-      </c>
-      <c r="E4" s="11">
+      <c r="G9" s="22">
+        <v>4</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="21">
+        <v>0</v>
+      </c>
+      <c r="K9" s="21">
+        <v>1</v>
+      </c>
+      <c r="L9" s="22">
         <v>2</v>
       </c>
-      <c r="F4" s="11">
+      <c r="N9" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="O9" s="21">
+        <v>0</v>
+      </c>
+      <c r="P9" s="22">
+        <v>1</v>
+      </c>
+      <c r="R9" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="S9" s="21">
+        <v>0</v>
+      </c>
+      <c r="T9" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="29"/>
+      <c r="B10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>-0.60309114699999999</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-0.61238387299999997</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-0.612825485</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-0.61283007899999997</v>
+      </c>
+      <c r="G10" s="2">
+        <v>-0.61283042799999998</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>-0.60519068655711761</v>
+      </c>
+      <c r="K10" s="5">
+        <v>-0.61686674333230274</v>
+      </c>
+      <c r="L10" s="6">
+        <v>-0.61866309087506033</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
+        <v>-0.60630548646453974</v>
+      </c>
+      <c r="P10" s="6">
+        <v>-0.62092019097221574</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="S10" s="5">
+        <v>-0.60633567834760937</v>
+      </c>
+      <c r="T10" s="6">
+        <v>-0.62055940632757012</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="29"/>
+      <c r="B11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-0.60309088200000005</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-0.61235793000000005</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-0.61279688899999996</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-0.61280144700000005</v>
+      </c>
+      <c r="G11" s="2">
+        <v>-0.61280179199999996</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5">
+        <v>-0.60403108116490412</v>
+      </c>
+      <c r="K11" s="5">
+        <v>-0.61523623225094859</v>
+      </c>
+      <c r="L11" s="6">
+        <v>-0.61687349480251441</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="O11" s="5">
+        <v>-0.60416091802561367</v>
+      </c>
+      <c r="P11" s="6">
+        <v>-0.61854328084941568</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="S11" s="5">
+        <v>-0.60418753343312126</v>
+      </c>
+      <c r="T11" s="6">
+        <v>-0.61829121083925898</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="17" thickBot="1">
+      <c r="A12" s="29"/>
+      <c r="B12" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>-0.60318064699999996</v>
+      </c>
+      <c r="D12" s="3">
+        <v>-0.61235611400000001</v>
+      </c>
+      <c r="E12" s="3">
+        <v>-0.61279694500000004</v>
+      </c>
+      <c r="F12" s="3">
+        <v>-0.61280144599999997</v>
+      </c>
+      <c r="G12" s="4">
+        <v>-0.61280179199999996</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="7">
+        <v>-0.60411403905876959</v>
+      </c>
+      <c r="K12" s="7">
+        <v>-0.61523537425380737</v>
+      </c>
+      <c r="L12" s="8">
+        <v>-0.61687412580202761</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="O12" s="7">
+        <v>-0.6042439954329023</v>
+      </c>
+      <c r="P12" s="8">
+        <v>-0.61854324808229544</v>
+      </c>
+      <c r="R12" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S12" s="7">
+        <v>-0.60427110239629966</v>
+      </c>
+      <c r="T12" s="8">
+        <v>-0.61829142649986535</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="17" thickBot="1"/>
+    <row r="14" spans="1:20">
+      <c r="A14" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="24">
+        <v>0</v>
+      </c>
+      <c r="D14" s="24">
+        <v>1</v>
+      </c>
+      <c r="E14" s="24">
+        <v>2</v>
+      </c>
+      <c r="F14" s="24">
         <v>3</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G14" s="25">
         <v>4</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="H14" s="18"/>
+      <c r="I14" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="21">
+        <v>0</v>
+      </c>
+      <c r="K14" s="21">
+        <v>1</v>
+      </c>
+      <c r="L14" s="22">
+        <v>2</v>
+      </c>
+      <c r="N14" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="O14" s="27">
+        <v>0</v>
+      </c>
+      <c r="P14" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="29"/>
+      <c r="B15" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>-0.83389685848336093</v>
+      </c>
+      <c r="D15" s="5">
+        <v>-0.84069852124738664</v>
+      </c>
+      <c r="E15" s="5">
+        <v>-0.84085972110705487</v>
+      </c>
+      <c r="F15" s="5">
+        <v>-0.84086122348351089</v>
+      </c>
+      <c r="G15" s="6">
+        <v>-0.8408613846240498</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <v>-0.74389891177542189</v>
+      </c>
+      <c r="K15" s="5">
+        <v>-0.750452744779321</v>
+      </c>
+      <c r="L15" s="6">
+        <v>-0.75124895400005742</v>
+      </c>
+      <c r="N15" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" s="5">
+        <v>-0.75047902580174142</v>
+      </c>
+      <c r="P15" s="5">
+        <v>-0.75928054727839511</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="29"/>
+      <c r="B16" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5">
+        <v>-0.8338865580559498</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-0.84068435290967269</v>
+      </c>
+      <c r="E16" s="5">
+        <v>-0.84084373075002927</v>
+      </c>
+      <c r="F16" s="5">
+        <v>-0.84084529585508405</v>
+      </c>
+      <c r="G16" s="6">
+        <v>-0.84084545600355598</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5">
+        <v>-0.74365572749778641</v>
+      </c>
+      <c r="K16" s="5">
+        <v>-0.75020502712673276</v>
+      </c>
+      <c r="L16" s="6">
+        <v>-0.75100262456371791</v>
+      </c>
+      <c r="N16" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="O16" s="5">
+        <v>-0.7502122289539267</v>
+      </c>
+      <c r="P16" s="5">
+        <v>-0.75895236887251527</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="17" thickBot="1">
+      <c r="A17" s="29"/>
+      <c r="B17" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-0.83403101338917529</v>
+      </c>
+      <c r="D17" s="7">
+        <v>-0.84068134348212564</v>
+      </c>
+      <c r="E17" s="7">
+        <v>-0.84084383779317096</v>
+      </c>
+      <c r="F17" s="7">
+        <v>-0.84084529277524778</v>
+      </c>
+      <c r="G17" s="8">
+        <v>-0.84084545604973981</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" s="7">
+        <v>-0.74376873643999686</v>
+      </c>
+      <c r="K17" s="7">
+        <v>-0.75020347033116908</v>
+      </c>
+      <c r="L17" s="8">
+        <v>-0.75100345777270949</v>
+      </c>
+      <c r="N17" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="O17" s="5">
+        <v>-0.75032423272576654</v>
+      </c>
+      <c r="P17" s="5">
+        <v>-0.75895192056819749</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="17" thickBot="1"/>
+    <row r="19" spans="1:16">
+      <c r="A19" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="24">
+        <v>0</v>
+      </c>
+      <c r="D19" s="24">
+        <v>1</v>
+      </c>
+      <c r="E19" s="24">
+        <v>2</v>
+      </c>
+      <c r="F19" s="24">
+        <v>3</v>
+      </c>
+      <c r="G19" s="25">
+        <v>4</v>
+      </c>
+      <c r="H19" s="18"/>
+      <c r="I19" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="21">
+        <v>0</v>
+      </c>
+      <c r="K19" s="21">
+        <v>1</v>
+      </c>
+      <c r="L19" s="22">
+        <v>2</v>
+      </c>
+      <c r="N19" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="O19" s="21">
+        <v>0</v>
+      </c>
+      <c r="P19" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="29"/>
+      <c r="B20" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5">
+        <v>-1.211279791150542</v>
+      </c>
+      <c r="D20" s="5">
+        <v>-1.212178029718145</v>
+      </c>
+      <c r="E20" s="5">
+        <v>-1.2120120869135409</v>
+      </c>
+      <c r="F20" s="5">
+        <v>-1.2120111322168801</v>
+      </c>
+      <c r="G20" s="6">
+        <v>-1.212010807463622</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5">
+        <v>-1.051669598757522</v>
+      </c>
+      <c r="K20" s="5">
+        <v>-1.0442841210041081</v>
+      </c>
+      <c r="L20" s="6">
+        <v>-1.043137247037401</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="O20" s="5">
+        <v>-1.0690702232258751</v>
+      </c>
+      <c r="P20" s="6">
+        <v>-1.056819312612475</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="29"/>
+      <c r="B21" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5">
+        <v>-1.2112161826272809</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-1.2120805637439329</v>
+      </c>
+      <c r="E21" s="5">
+        <v>-1.211907974765188</v>
+      </c>
+      <c r="F21" s="5">
+        <v>-1.211907202949781</v>
+      </c>
+      <c r="G21" s="6">
+        <v>-1.211906877987952</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="5">
+        <v>-1.049725181816199</v>
+      </c>
+      <c r="K21" s="5">
+        <v>-1.0422331513600831</v>
+      </c>
+      <c r="L21" s="6">
+        <v>-1.0409916164852859</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="O21" s="5">
+        <v>-1.0675995975639421</v>
+      </c>
+      <c r="P21" s="6">
+        <v>-1.0543337002198361</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="17" thickBot="1">
+      <c r="A22" s="29"/>
+      <c r="B22" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="7">
+        <v>-1.2114576754528461</v>
+      </c>
+      <c r="D22" s="7">
+        <v>-1.212075551409201</v>
+      </c>
+      <c r="E22" s="7">
+        <v>-1.211907941802876</v>
+      </c>
+      <c r="F22" s="7">
+        <v>-1.2119072107149651</v>
+      </c>
+      <c r="G22" s="8">
+        <v>-1.211906877323647</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="7">
+        <v>-1.0498913615982479</v>
+      </c>
+      <c r="K22" s="7">
+        <v>-1.0422303532039809</v>
+      </c>
+      <c r="L22" s="8">
+        <v>-1.0409928314094321</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="O22" s="7">
+        <v>-1.067336906737548</v>
+      </c>
+      <c r="P22" s="8">
+        <v>-1.0544123225290729</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="N24" s="16"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+    </row>
+    <row r="28" spans="1:16" ht="17" thickBot="1">
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="54"/>
+      <c r="B30" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="47">
+        <v>-0.53227158076429459</v>
+      </c>
+      <c r="D30" s="48">
+        <v>-0.54354527419858745</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="16"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="54"/>
+      <c r="B31" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="47">
+        <v>-0.53534080485192004</v>
+      </c>
+      <c r="D31" s="48">
+        <v>-0.55101529297421448</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="16"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="54"/>
+      <c r="B32" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="47">
+        <v>-0.5371197467280644</v>
+      </c>
+      <c r="D32" s="48">
+        <v>-0.55715906888826705</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="16"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+    </row>
+    <row r="33" spans="1:16" ht="17" thickBot="1">
+      <c r="A33" s="54"/>
+      <c r="B33" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="47">
+        <v>-0.53720295790690109</v>
+      </c>
+      <c r="D33" s="48">
+        <v>-0.55693189159261502</v>
+      </c>
+      <c r="E33" s="14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="B5" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>-0.60309114699999999</v>
-      </c>
-      <c r="D5" s="1">
-        <v>-0.61238387299999997</v>
-      </c>
-      <c r="E5" s="1">
-        <v>-0.612825485</v>
-      </c>
-      <c r="F5" s="1">
-        <v>-0.61283007899999997</v>
-      </c>
-      <c r="G5" s="2">
-        <v>-0.61283042799999998</v>
-      </c>
-      <c r="I5" s="22" t="s">
+      <c r="F33" s="16"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="54"/>
+      <c r="B34" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="54"/>
+      <c r="B35" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="37">
+        <v>-0.53227001581102107</v>
+      </c>
+      <c r="D35" s="38">
+        <v>-0.54351294447003184</v>
+      </c>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="54"/>
+      <c r="B36" s="51" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="B6" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>-0.60309088200000005</v>
-      </c>
-      <c r="D6" s="1">
-        <v>-0.61235793000000005</v>
-      </c>
-      <c r="E6" s="1">
-        <v>-0.61279688899999996</v>
-      </c>
-      <c r="F6" s="1">
-        <v>-0.61280144700000005</v>
-      </c>
-      <c r="G6" s="2">
-        <v>-0.61280179199999996</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="17" thickBot="1">
-      <c r="B7" s="14" t="s">
+      <c r="C36" s="37">
+        <v>-0.53383866829958992</v>
+      </c>
+      <c r="D36" s="38">
+        <v>-0.54920131947012907</v>
+      </c>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="54"/>
+      <c r="B37" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="37">
+        <v>-0.53459493924942159</v>
+      </c>
+      <c r="D37" s="38">
+        <v>-0.5545151349251185</v>
+      </c>
+      <c r="F37" s="16"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="54"/>
+      <c r="B38" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="37">
+        <v>-0.53459607174075863</v>
+      </c>
+      <c r="D38" s="38">
+        <v>-0.55430057926920462</v>
+      </c>
+      <c r="F38" s="16"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="54"/>
+      <c r="B39" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="3">
-        <v>-0.60318064699999996</v>
-      </c>
-      <c r="D7" s="3">
-        <v>-0.61235611400000001</v>
-      </c>
-      <c r="E7" s="3">
-        <v>-0.61279694500000004</v>
-      </c>
-      <c r="F7" s="3">
-        <v>-0.61280144599999997</v>
-      </c>
-      <c r="G7" s="4">
-        <v>-0.61280179199999996</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="I8" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="17" thickBot="1">
-      <c r="I9" s="23" t="s">
+      <c r="C39" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="16"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="54"/>
+      <c r="B40" s="52" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="17" thickBot="1"/>
-    <row r="11" spans="1:9">
-      <c r="A11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16">
-        <v>0</v>
-      </c>
-      <c r="D11" s="16">
-        <v>1</v>
-      </c>
-      <c r="E11" s="16">
-        <v>2</v>
-      </c>
-      <c r="F11" s="16">
-        <v>3</v>
-      </c>
-      <c r="G11" s="17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="B12" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="5">
-        <v>-0.83389685848336093</v>
-      </c>
-      <c r="D12" s="5">
-        <v>-0.84069852124738664</v>
-      </c>
-      <c r="E12" s="5">
-        <v>-0.84085972110705487</v>
-      </c>
-      <c r="F12" s="5">
-        <v>-0.84086122348351089</v>
-      </c>
-      <c r="G12" s="6">
-        <v>-0.8408613846240498</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="B13" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="5">
-        <v>-0.8338865580559498</v>
-      </c>
-      <c r="D13" s="5">
-        <v>-0.84068435290967269</v>
-      </c>
-      <c r="E13" s="5">
-        <v>-0.84084373075002927</v>
-      </c>
-      <c r="F13" s="5">
-        <v>-0.84084529585508405</v>
-      </c>
-      <c r="G13" s="6">
-        <v>-0.84084545600355598</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="17" thickBot="1">
-      <c r="B14" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="7">
-        <v>-0.83403101338917529</v>
-      </c>
-      <c r="D14" s="7">
-        <v>-0.84068134348212564</v>
-      </c>
-      <c r="E14" s="7">
-        <v>-0.84084383779317096</v>
-      </c>
-      <c r="F14" s="7">
-        <v>-0.84084529277524778</v>
-      </c>
-      <c r="G14" s="8">
-        <v>-0.84084545604973981</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="17" thickBot="1"/>
-    <row r="18" spans="1:7">
-      <c r="A18" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16">
-        <v>0</v>
-      </c>
-      <c r="D18" s="16">
-        <v>1</v>
-      </c>
-      <c r="E18" s="16">
-        <v>2</v>
-      </c>
-      <c r="F18" s="16">
-        <v>3</v>
-      </c>
-      <c r="G18" s="17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="B19" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="5">
-        <v>-1.211279791150542</v>
-      </c>
-      <c r="D19" s="5">
-        <v>-1.212178029718145</v>
-      </c>
-      <c r="E19" s="5">
-        <v>-1.2120120869135409</v>
-      </c>
-      <c r="F19" s="5">
-        <v>-1.2120111322168801</v>
-      </c>
-      <c r="G19" s="6">
-        <v>-1.212010807463622</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="B20" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="5">
-        <v>-1.2112161826272809</v>
-      </c>
-      <c r="D20" s="5">
-        <v>-1.2120805637439329</v>
-      </c>
-      <c r="E20" s="5">
-        <v>-1.211907974765188</v>
-      </c>
-      <c r="F20" s="5">
-        <v>-1.211907202949781</v>
-      </c>
-      <c r="G20" s="6">
-        <v>-1.211906877987952</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="17" thickBot="1">
-      <c r="B21" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="7">
-        <v>-1.2114576754528461</v>
-      </c>
-      <c r="D21" s="7">
-        <v>-1.212075551409201</v>
-      </c>
-      <c r="E21" s="7">
-        <v>-1.211907941802876</v>
-      </c>
-      <c r="F21" s="7">
-        <v>-1.2119072107149651</v>
-      </c>
-      <c r="G21" s="8">
-        <v>-1.211906877323647</v>
+      <c r="C40" s="41">
+        <v>-0.53233819262104654</v>
+      </c>
+      <c r="D40" s="42">
+        <v>-0.54351175015329767</v>
+      </c>
+      <c r="F40" s="16"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="54"/>
+      <c r="B41" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="41">
+        <v>-0.53390175422833064</v>
+      </c>
+      <c r="D41" s="42">
+        <v>-0.54920033446500272</v>
+      </c>
+      <c r="F41" s="16"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="54"/>
+      <c r="B42" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="41">
+        <v>-0.53465759309210203</v>
+      </c>
+      <c r="D42" s="42">
+        <v>-0.55451498727338644</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="17" thickBot="1">
+      <c r="A43" s="54"/>
+      <c r="B43" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="43">
+        <v>-0.53465918326254069</v>
+      </c>
+      <c r="D43" s="44">
+        <v>-0.55430069801584947</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="9">
+    <mergeCell ref="R6:T8"/>
+    <mergeCell ref="A29:A43"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B6:G8"/>
+    <mergeCell ref="I6:L8"/>
+    <mergeCell ref="N6:P8"/>
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A14:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
